--- a/algorithm plan.xlsx
+++ b/algorithm plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8FD860-3958-4A9D-A843-E379BB72B2A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9F4DD5-3375-4C77-8447-55C5089F14D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>满二叉树</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平衡二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红黑树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,10 +263,6 @@
   </si>
   <si>
     <t>树堆（Treap）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平衡二叉搜索树/自平衡二叉查找树/高度平衡树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,6 +281,42 @@
   <si>
     <t>树的先序、中序、后序遍历非递
 归实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡二叉搜索树/自平衡二叉查找树/高度平衡树/
+平衡二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用相对其他数据结构比较少。
+windows对进程地址空间的管理用到了
+AVL树。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用在统计和排序大量字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸展树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splay Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黑树的变种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡二叉搜索树/自平衡二叉查找树/高度平衡树/
+RBT（Red-Black Tree）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -678,16 +706,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -702,273 +730,291 @@
     </row>
     <row r="4" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>66</v>
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>63</v>
+      <c r="A9" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>58</v>
+      <c r="D40" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
